--- a/feedback_forms/current_versions/energy_operator_feedback_v002_jinja_.xlsx
+++ b/feedback_forms/current_versions/energy_operator_feedback_v002_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C06B9-B80D-49CA-950F-0B37A8BC6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="z1BMOj644ErDIkBqekH111AAQgiHAQ6BqonBFiPhYLGHtsfAxQbF0mFRIUxVDihpKTJGUQbYbxOhnqHvQfabxg==" workbookSaltValue="yEU2zqpfNfm51iiHkpig5Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD0B4C-E0F6-41B2-A2B4-3EF5713685AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="45GZANVjtM0NBssLCuy6tnicBfAwn4wVyQTP57uZWOM/UmUV9BnBg0x14Vjzgku6HkrlCV4ojGa5C+O6lezr0g==" workbookSaltValue="gIVyxU0HhTEzsWqX5s0YPw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4327" yWindow="2053" windowWidth="17413" windowHeight="11467" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4667" yWindow="2393" windowWidth="17413" windowHeight="11467" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -658,27 +658,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Q6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Was an OGI inspection performed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Q9.</t>
     </r>
     <r>
@@ -825,25 +804,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Q22. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Additional notes or comments.</t>
-    </r>
-  </si>
-  <si>
     <t>Q13 Answer.</t>
   </si>
   <si>
@@ -882,27 +842,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Q8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> If you answered 'Yes' to Q6, what type of source was found using OGI?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Q10.</t>
     </r>
     <r>
@@ -913,27 +852,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">  If you answered 'Yes' to Q9, what date and time was the Method 21 inspection performed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> If you answered 'Yes' to Q9, what type of source was found using Method 21?</t>
     </r>
   </si>
   <si>
@@ -1130,6 +1048,88 @@
     <t>energy_v00_01</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Q22.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Additional notes or comments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  If you answered 'Yes' to Q9, what type of source was found using Method 21?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Was an OGI inspection performed?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  If you answered 'Yes' to Q6, what type of source was found using OGI?</t>
+    </r>
+  </si>
+  <si>
     <t>{{ additional_notes }}</t>
   </si>
   <si>
@@ -1221,13 +1221,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1490,10 +1496,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1503,8 +1509,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1515,8 +1521,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1528,45 +1534,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1574,94 +1586,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2773,9 +2782,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2835,7 +2842,7 @@
     </row>
     <row r="3" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3110,7 +3117,7 @@
     </row>
     <row r="16" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="63" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -3749,8 +3756,8 @@
       </c>
     </row>
     <row r="44" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="59" t="s">
-        <v>162</v>
+      <c r="B44" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="38" t="s">
@@ -3760,8 +3767,8 @@
       <c r="F44" s="41"/>
     </row>
     <row r="45" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="59" t="s">
-        <v>173</v>
+      <c r="B45" s="64" t="s">
+        <v>171</v>
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="50" t="s">
@@ -3771,8 +3778,8 @@
       <c r="F45" s="41"/>
     </row>
     <row r="46" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="59" t="s">
-        <v>174</v>
+      <c r="B46" s="64" t="s">
+        <v>211</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="38" t="s">
@@ -3783,7 +3790,7 @@
     </row>
     <row r="47" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="38" t="s">
@@ -3794,7 +3801,7 @@
     </row>
     <row r="48" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="50" t="s">
@@ -3804,8 +3811,8 @@
       <c r="F48" s="41"/>
     </row>
     <row r="49" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="59" t="s">
-        <v>176</v>
+      <c r="B49" s="64" t="s">
+        <v>209</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="38" t="s">
@@ -3816,7 +3823,7 @@
     </row>
     <row r="50" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="49" t="s">
@@ -3827,7 +3834,7 @@
     </row>
     <row r="51" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="60" t="s">
@@ -3838,7 +3845,7 @@
     </row>
     <row r="52" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="60" t="s">
@@ -3955,7 +3962,7 @@
     </row>
     <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="38" t="s">
@@ -3966,7 +3973,7 @@
     </row>
     <row r="57" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="60" t="s">
@@ -3977,7 +3984,7 @@
     </row>
     <row r="58" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="38" t="s">
@@ -3988,7 +3995,7 @@
     </row>
     <row r="59" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B59" s="59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="60" t="s">
@@ -3999,7 +4006,7 @@
     </row>
     <row r="60" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B60" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="50" t="s">
@@ -4010,7 +4017,7 @@
     </row>
     <row r="61" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B61" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="49" t="s">
@@ -4021,7 +4028,7 @@
     </row>
     <row r="62" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B62" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="61" t="s">
@@ -4071,7 +4078,7 @@
     </row>
     <row r="66" spans="2:6" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B66" s="34" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="60" t="s">
@@ -4080,7 +4087,7 @@
       <c r="F66" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N6Wc13Jv7bgApxg+NhCF+BPmHU0HKAfWxbVUwAr6pt7rqRHZTyTg2syx+21V6olzZfpNGyJ+V6KyhKuKqKgTwQ==" saltValue="OSnnVPK8PtgJzjuEq2irKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="svDT8af2W0npfOzyj+ymzT7wgA7s2mInp1ldZRI0qqW2jzSS0f1boSWDTY5zCrMMyKQZ5rYsAX+k8SRe/AIbqA==" saltValue="j3W/OiyGS/wZvPH1bCjUQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B23" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -4297,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D21" s="16">
         <v>45758</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F21" s="10" t="str">
         <f t="shared" ref="F21:F23" si="0">$B$16</f>
@@ -4316,20 +4323,20 @@
         <v>2</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D22" s="16">
         <v>45758</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>$B$13</f>
         <v>Received</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
@@ -4337,13 +4344,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D23" s="16">
         <v>45758</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4356,20 +4363,20 @@
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D24" s="16">
         <v>45758</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>$B$13</f>
         <v>Received</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
@@ -4617,7 +4624,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BgBMMtzRSO85X9pgOmnKh5LetS6ltZ7al5RYke0d3QQGzzeEHrpOpTGMtJF/AJUWRCgbqr8xnvZ5jm/1+qVW1g==" saltValue="q6qFlRAfzQa1qw6DpKDcFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8tAtxAYf6nlUnrw5QoPJfxAc0Zwz5AbXVaX1sZSZb4oB96QBb060atTShKcwNjdjwjGcD64t8/nmkAaUM2mKIg==" saltValue="XlRBQAi/eN8LR0KUHRHzkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -5789,7 +5796,7 @@
       <c r="Q89" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g2Fpoy77kSemKPBQVFv2yQlA7aLr7tscYBTighStSS90Dvp81Ex+bsuUquoFirp1Z193KATWpOj2I3D2cevyLg==" saltValue="y0z6SYLKdvljOYs/uqJX8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yd9Y0FbW2CLFdNFHpeqNgO/ISv6f+1eETuZUJxy4kWmD8QEfV7Zmy5wGvHPzNfhcoKW/7dlw1M5IuEcLxiXDnQ==" saltValue="u165YP9VApmPOMbUUmxoXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -5868,11 +5875,11 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="thKklbzHYPGKZxklT0PEfywZEJigpHMWuNlExPwKHqN6THskMI9pDZh9Azv4trhBGsJIFbNFS/WlpVoUPQ1SJw==" saltValue="TQkjR7Q1A3zgjbblf772XA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z1HK3WGQuVyNVX1QTb1ZljMSkifr48FbKxWMG6j3+cka0dV6k1W91X0RXVas8xCExWe0mrhVVBM4+HZhtQi1qw==" saltValue="QZ7ZaldutppMDehXnKsmbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5965,7 +5972,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V3IYOvdSRaFJ3IIrovmsElVeg/qZ/+GWKEoxbekJ5sGKvw75COS8B64+WXIKurkZS6wmCejrLBEOyxQEPSIDRQ==" saltValue="Am6X5d4i0UC085TrgQ/udw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CruDu+b1ifwwahDR1mxo3ZFtyUc1qwMKV1mFUTUdcfauTIdYT9MWkGnj5pUUBU1RYltfCpOfl4gQukw7GJzhKw==" saltValue="RT6mgRuGbfALv2puZS2t9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6072,7 +6079,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -6081,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.5">
@@ -6123,7 +6130,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -6140,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
@@ -6157,7 +6164,7 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -6174,7 +6181,7 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
@@ -6191,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
         <v>98</v>
@@ -6208,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -6259,7 +6266,7 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
@@ -6293,7 +6300,7 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -6327,7 +6334,7 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
@@ -6336,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.5">
@@ -6344,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -6361,7 +6368,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -6378,7 +6385,7 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
@@ -6395,7 +6402,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
         <v>132</v>
@@ -6429,7 +6436,7 @@
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
@@ -6446,7 +6453,7 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
@@ -6463,7 +6470,7 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
         <v>136</v>
@@ -6480,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
@@ -6506,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.5">
@@ -6531,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
@@ -6540,11 +6547,11 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hGOFrpRG+DOyhRG/jhfXLInmg/6f/J70RbS12QCi72N8+SC5E9+hJL8cYujjGX7xjegLf5mQMOytEeDcpzH31g==" saltValue="PGqoQxrIsfFawvMkwELVtw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p2ENOru8zly7+WGTAjcS6Zh74ByVqjgHuiLfPZp+YTqhTojQupHlHzbwBLwdvKbCc3Iv+lvUDv63zY+E5OhZ8Q==" saltValue="foQaUhPctE0IUYD0/CVcUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R38">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -6554,12 +6561,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6798,20 +6807,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6836,12 +6846,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>